--- a/Volaris/inputFiles/testData.xlsx
+++ b/Volaris/inputFiles/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="5985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,44 +13,26 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N17"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>user1</t>
-  </si>
-  <si>
-    <t>pass1</t>
   </si>
   <si>
     <t>user2</t>
   </si>
   <si>
-    <t>pass2</t>
-  </si>
-  <si>
     <t>user3</t>
-  </si>
-  <si>
-    <t>pass3</t>
   </si>
   <si>
     <t>amar</t>
   </si>
   <si>
     <t>nath</t>
-  </si>
-  <si>
-    <t>Mobile1</t>
-  </si>
-  <si>
-    <t>March/03/2017</t>
-  </si>
-  <si>
-    <t>FALSE/TRUE</t>
   </si>
 </sst>
 </file>
@@ -397,7 +379,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,11 +392,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+      <c r="B1">
+        <v>12</v>
       </c>
       <c r="D1" t="b">
         <v>1</v>
@@ -422,13 +401,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -436,50 +412,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>123456</v>
-      </c>
-      <c r="B4">
-        <v>45678</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42950</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42802</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>42797</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -498,10 +446,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Volaris/inputFiles/testData.xlsx
+++ b/Volaris/inputFiles/testData.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="5985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>user1</t>
   </si>
@@ -33,6 +32,15 @@
   </si>
   <si>
     <t>nath</t>
+  </si>
+  <si>
+    <t>march-16-2017</t>
+  </si>
+  <si>
+    <t>16/03/2017</t>
+  </si>
+  <si>
+    <t>march/16/2017</t>
   </si>
 </sst>
 </file>
@@ -70,8 +78,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,16 +384,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42810</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -395,7 +476,7 @@
       <c r="B1">
         <v>12</v>
       </c>
-      <c r="D1" t="b">
+      <c r="C1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -406,7 +487,7 @@
       <c r="B2">
         <v>23</v>
       </c>
-      <c r="D2" t="b">
+      <c r="C2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -417,43 +498,32 @@
       <c r="B3">
         <v>34</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -467,16 +537,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Volaris/inputFiles/testData.xlsx
+++ b/Volaris/inputFiles/testData.xlsx
@@ -4,43 +4,50 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="5985" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O17"/>
+  <oleSize ref="A1:N17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>user1</t>
   </si>
   <si>
+    <t>pass1</t>
+  </si>
+  <si>
     <t>user2</t>
   </si>
   <si>
+    <t>pass2</t>
+  </si>
+  <si>
     <t>user3</t>
   </si>
   <si>
+    <t>pass3</t>
+  </si>
+  <si>
     <t>amar</t>
   </si>
   <si>
     <t>nath</t>
   </si>
   <si>
-    <t>march-16-2017</t>
-  </si>
-  <si>
-    <t>16/03/2017</t>
-  </si>
-  <si>
-    <t>march/16/2017</t>
+    <t>Mobile1</t>
+  </si>
+  <si>
+    <t>March/03/2017</t>
   </si>
 </sst>
 </file>
@@ -78,8 +85,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,71 +391,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42950</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42802</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42802</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42802</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>34</v>
+      <c r="A4" s="1">
+        <v>42950</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42802</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42810</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>42810</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -456,78 +617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>12</v>
-      </c>
-      <c r="C1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42810</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
